--- a/users.xlsx
+++ b/users.xlsx
@@ -25,28 +25,28 @@
     <t>lastName</t>
   </si>
   <si>
-    <t>Madeline</t>
-  </si>
-  <si>
-    <t>Matthew</t>
-  </si>
-  <si>
-    <t>Cory</t>
-  </si>
-  <si>
-    <t>Joseph</t>
-  </si>
-  <si>
-    <t>Owens</t>
-  </si>
-  <si>
-    <t>Garcia</t>
-  </si>
-  <si>
-    <t>Estrada</t>
-  </si>
-  <si>
-    <t>Martinez</t>
+    <t>Angela</t>
+  </si>
+  <si>
+    <t>Crystal</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Amber</t>
+  </si>
+  <si>
+    <t>Lewis</t>
+  </si>
+  <si>
+    <t>Yates</t>
+  </si>
+  <si>
+    <t>Rodriguez</t>
+  </si>
+  <si>
+    <t>Larsen</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -434,7 +434,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -456,7 +456,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>

--- a/users.xlsx
+++ b/users.xlsx
@@ -25,28 +25,28 @@
     <t>lastName</t>
   </si>
   <si>
-    <t>Angela</t>
-  </si>
-  <si>
-    <t>Crystal</t>
-  </si>
-  <si>
-    <t>Daniel</t>
-  </si>
-  <si>
-    <t>Amber</t>
-  </si>
-  <si>
-    <t>Lewis</t>
-  </si>
-  <si>
-    <t>Yates</t>
-  </si>
-  <si>
-    <t>Rodriguez</t>
-  </si>
-  <si>
-    <t>Larsen</t>
+    <t>Kimberly</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Kayla</t>
+  </si>
+  <si>
+    <t>Floyd</t>
+  </si>
+  <si>
+    <t>Gonzales</t>
+  </si>
+  <si>
+    <t>Herring</t>
+  </si>
+  <si>
+    <t>Mcdaniel</t>
   </si>
 </sst>
 </file>
@@ -434,7 +434,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
